--- a/xlsx/_wiki_鴞_intext.xlsx
+++ b/xlsx/_wiki_鴞_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="455">
   <si>
     <t>鴞</t>
   </si>
@@ -564,12 +564,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
   <si>
     <t>https://ace.wikipedia.org/wiki/Jamp%C3%B4k</t>
@@ -1734,7 +1728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G229"/>
+  <dimension ref="A1:G228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4657,7 +4651,7 @@
         <v>252</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4680,7 +4674,7 @@
         <v>254</v>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5853,7 +5847,7 @@
         <v>356</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5876,7 +5870,7 @@
         <v>358</v>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -6980,29 +6974,6 @@
         <v>454</v>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="s">
-        <v>0</v>
-      </c>
-      <c r="C229" t="s">
-        <v>1</v>
-      </c>
-      <c r="D229" t="n">
-        <v>228</v>
-      </c>
-      <c r="E229" t="s">
-        <v>455</v>
-      </c>
-      <c r="F229" t="s">
-        <v>456</v>
-      </c>
-      <c r="G229" t="n">
         <v>1</v>
       </c>
     </row>

--- a/xlsx/_wiki_鴞_intext.xlsx
+++ b/xlsx/_wiki_鴞_intext.xlsx
@@ -23,415 +23,415 @@
     <t>https://zh.wikipedia.org/zh-cn/%E9%B4%9E</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%93%E9%A0%AD%E9%B7%B9_(%E9%9B%BB%E5%BD%B1)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%B2%93%E9%A0%AD%E9%B7%B9_(%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
     <t>猫头鹰 (电影)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%9F_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%A2%9F_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
     <t>枭 (消歧义)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%B0%E6%9E%97%E9%B8%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%B0%E6%9E%97%E9%B8%AE</t>
   </si>
   <si>
     <t>灰林鸮</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%88%86%E7%B1%BB%E5%AD%A6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%94%9F%E7%89%A9%E5%88%86%E7%B1%BB%E5%AD%A6</t>
   </si>
   <si>
     <t>生物分类学</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E7%89%A9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8A%A8%E7%89%A9</t>
   </si>
   <si>
     <t>动物</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%84%8A%E7%B4%A2%E5%8A%A8%E7%89%A9%E9%97%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%84%8A%E7%B4%A2%E5%8A%A8%E7%89%A9%E9%97%A8</t>
   </si>
   <si>
     <t>脊索动物门</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B8%9F%E7%BA%B2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%B8%9F%E7%BA%B2</t>
   </si>
   <si>
     <t>鸟纲</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%8A%E9%B8%9F%E4%BA%9A%E7%BA%B2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BB%8A%E9%B8%9F%E4%BA%9A%E7%BA%B2</t>
   </si>
   <si>
     <t>今鸟亚纲</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%8A%E9%A2%9A%E4%B8%8B%E7%BA%B2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BB%8A%E9%A2%9A%E4%B8%8B%E7%BA%B2</t>
   </si>
   <si>
     <t>今颚下纲</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91_(%E7%94%9F%E7%89%A9)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%A7%91_(%E7%94%9F%E7%89%A9)</t>
   </si>
   <si>
     <t>科 (生物)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%89%E9%B8%AE%E7%A7%91</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%8D%89%E9%B8%AE%E7%A7%91</t>
   </si>
   <si>
     <t>草鸮科</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B8%B1%E9%B8%AE%E7%A7%91</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%B8%B1%E9%B8%AE%E7%A7%91</t>
   </si>
   <si>
     <t>鸱鸮科</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E5%90%8D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AD%A6%E5%90%8D</t>
   </si>
   <si>
     <t>学名</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B3%A5%E9%A1%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%B3%A5%E9%A1%9E</t>
   </si>
   <si>
     <t>鸟类</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%AE_(%E7%94%9F%E7%89%A9)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%9B%AE_(%E7%94%9F%E7%89%A9)</t>
   </si>
   <si>
     <t>目 (生物)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
   </si>
   <si>
     <t>南极洲</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9C%E8%A1%8C%E6%80%A7%E5%8B%95%E7%89%A9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%9C%E8%A1%8C%E6%80%A7%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
     <t>夜行性动物</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%95%E9%B8%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%95%E9%B8%AE</t>
   </si>
   <si>
     <t>雕鸮</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E8%A7%92%E9%B4%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9D%B1%E6%96%B9%E8%A7%92%E9%B4%9E</t>
   </si>
   <si>
     <t>东方角鸮</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%A2%E7%9B%98</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9D%A2%E7%9B%98</t>
   </si>
   <si>
     <t>面盘</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8C%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%8C%AB</t>
   </si>
   <si>
     <t>猫</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8C%AB%E5%A4%B4%E9%B9%B0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%8C%AB%E5%A4%B4%E9%B9%B0</t>
   </si>
   <si>
     <t>猫头鹰</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9E%B3%E5%AD%94</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%9E%B3%E5%AD%94</t>
   </si>
   <si>
     <t>瞳孔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A7%86%E6%9D%86%E7%BB%86%E8%83%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A7%86%E6%9D%86%E7%BB%86%E8%83%9E</t>
   </si>
   <si>
     <t>视杆细胞</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A7%86%E7%B4%AB%E7%BA%A2%E8%B4%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A7%86%E7%B4%AB%E7%BA%A2%E8%B4%A8</t>
   </si>
   <si>
     <t>视紫红质</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A7%86%E9%94%A5%E7%BB%86%E8%83%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A7%86%E9%94%A5%E7%BB%86%E8%83%9E</t>
   </si>
   <si>
     <t>视锥细胞</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E8%80%B3%E9%B8%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%95%BF%E8%80%B3%E9%B8%AE</t>
   </si>
   <si>
     <t>长耳鸮</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%9D%E7%BA%A7%E9%A3%9E%E7%BE%BD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%88%9D%E7%BA%A7%E9%A3%9E%E7%BE%BD</t>
   </si>
   <si>
     <t>初级飞羽</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E8%A7%92%E9%B4%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A0%98%E8%A7%92%E9%B4%9E</t>
   </si>
   <si>
     <t>领角鸮</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%91%E9%A0%AD%E9%B5%82%E9%B6%B9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%96%91%E9%A0%AD%E9%B5%82%E9%B6%B9</t>
   </si>
   <si>
     <t>斑头鸺鹠</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B8%B1%E7%B4%8B%E8%85%B9%E5%B0%8F%E9%B4%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%B8%B1%E7%B4%8B%E8%85%B9%E5%B0%8F%E9%B4%9E</t>
   </si>
   <si>
     <t>纵纹腹小鸮</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E9%B4%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%AA%E9%B4%9E</t>
   </si>
   <si>
     <t>雪鸮</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E8%A7%92%E9%B8%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BA%A2%E8%A7%92%E9%B8%AE</t>
   </si>
   <si>
     <t>红角鸮</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%94%E9%B8%AE%E5%B1%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B8%94%E9%B8%AE%E5%B1%9E</t>
   </si>
   <si>
     <t>渔鸮属</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%94%BE%E9%A4%98</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%94%BE%E9%A4%98</t>
   </si>
   <si>
     <t>唾余</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%9B%BD</t>
   </si>
   <si>
     <t>中国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AC%BC%E9%B8%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%AC%BC%E9%B8%AE</t>
   </si>
   <si>
     <t>鬼鸮</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8C%9B%E9%B8%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%8C%9B%E9%B8%AE</t>
   </si>
   <si>
     <t>猛鸮</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%9E%97%E9%B8%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B9%8C%E6%9E%97%E9%B8%AE</t>
   </si>
   <si>
     <t>乌林鸮</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%AD%E8%80%B3%E9%B8%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%9F%AD%E8%80%B3%E9%B8%AE</t>
   </si>
   <si>
     <t>短耳鸮</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%93%E9%B8%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BB%93%E9%B8%AE</t>
   </si>
   <si>
     <t>仓鸮</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E5%A4%B4%E9%B8%BA%E9%B9%A0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%8A%B1%E5%A4%B4%E9%B8%BA%E9%B9%A0</t>
   </si>
   <si>
     <t>花头鸺鹠</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%97%A5%E6%9C%AC</t>
   </si>
   <si>
     <t>日本</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
     <t>台湾</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%87%BA%E7%81%A3%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
   </si>
   <si>
     <t>台湾原住民</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%BE%B2%E6%97%8F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B8%83%E8%BE%B2%E6%97%8F</t>
   </si>
   <si>
     <t>布农族</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AC%B0%E5%85%92</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AC%B0%E5%85%92</t>
   </si>
   <si>
     <t>婴儿</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BE%8E%E6%97%8F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%98%BF%E7%BE%8E%E6%97%8F</t>
   </si>
   <si>
     <t>阿美族</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%91%E5%8D%97%E6%97%8F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%91%E5%8D%97%E6%97%8F</t>
   </si>
   <si>
     <t>卑南族</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%82%B5%E6%97%8F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%82%B5%E6%97%8F</t>
   </si>
   <si>
     <t>邵族</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%82%9F%E6%97%8F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%81%94%E6%82%9F%E6%97%8F</t>
   </si>
   <si>
     <t>达悟族</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E5%8D%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%85%AD%E5%8D%9A</t>
   </si>
   <si>
     <t>六博</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B6%BA%E8%A1%A8%E9%8C%84%E7%95%B0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B6%BA%E8%A1%A8%E9%8C%84%E7%95%B0</t>
   </si>
   <si>
     <t>岭表录异</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E7%A5%9E%E8%AF%9D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%B0%E5%BA%A6%E7%A5%9E%E8%AF%9D</t>
   </si>
   <si>
     <t>印度神话</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%A5%A5%E5%A4%A9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%90%89%E7%A5%A5%E5%A4%A9</t>
   </si>
   <si>
     <t>吉祥天</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E7%A5%9E%E8%A9%B1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B8%8C%E8%87%98%E7%A5%9E%E8%A9%B1</t>
   </si>
   <si>
     <t>希腊神话</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E5%A8%9C</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%85%E5%85%B8%E5%A8%9C</t>
   </si>
   <si>
     <t>雅典娜</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%A3%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%9A%E5%A3%AB</t>
   </si>
   <si>
     <t>博士</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B8%9F%E7%B1%BBDNA%E5%88%86%E7%B1%BB%E7%B3%BB%E7%BB%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%B8%9F%E7%B1%BBDNA%E5%88%86%E7%B1%BB%E7%B3%BB%E7%BB%9F</t>
   </si>
   <si>
     <t>鸟类DNA分类系统</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B8%9F%E7%B1%BB%E4%BC%A0%E7%BB%9F%E5%88%86%E7%B1%BB%E7%B3%BB%E7%BB%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%B8%9F%E7%B1%BB%E4%BC%A0%E7%BB%9F%E5%88%86%E7%B1%BB%E7%B3%BB%E7%BB%9F</t>
   </si>
   <si>
     <t>鸟类传统分类系统</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E8%83%B8%E7%B8%BD%E7%9B%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B9%B3%E8%83%B8%E7%B8%BD%E7%9B%AE</t>
   </si>
   <si>
     <t>平胸总目</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E7%BF%BC%E9%B8%9F%E7%9B%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%97%A0%E7%BF%BC%E9%B8%9F%E7%9B%AE</t>
   </si>
   <si>
     <t>无翼鸟目</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B9%A4%E9%B8%B5%E7%9B%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%B9%A4%E9%B8%B5%E7%9B%AE</t>
   </si>
   <si>
     <t>鹤鸵目</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E9%B8%B5%E9%B8%9F%E7%9B%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BE%8E%E6%B4%B2%E9%B8%B5%E9%B8%9F%E7%9B%AE</t>
   </si>
   <si>
     <t>美洲鸵鸟目</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B8%B5%E9%B8%9F%E7%9B%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%B8%B5%E9%B8%9F%E7%9B%AE</t>
   </si>
   <si>
     <t>鸵鸟目</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B3%8D%E5%BD%A2%E7%9B%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B3%8D%E5%BD%A2%E7%9B%AE</t>
   </si>
   <si>
     <t>䳍形目</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%9E%E9%9B%81%E5%B0%8F%E7%B6%B1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%9E%E9%9B%81%E5%B0%8F%E7%B6%B1</t>
   </si>
   <si>
     <t>鸡雁小纲</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%81%E5%BD%A2%E7%9B%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%81%E5%BD%A2%E7%9B%AE</t>
   </si>
   <si>
     <t>雁形目</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B8%A1%E5%BD%A2%E7%9B%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%B8%A1%E5%BD%A2%E7%9B%AE</t>
   </si>
   <si>
     <t>鸡形目</t>
@@ -443,121 +443,121 @@
     <t>en-Neoaves</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B8%8A%E9%B7%89%E7%A7%91</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%B8%8A%E9%B7%89%E7%A7%91</t>
   </si>
   <si>
     <t>鸊鷉科</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B9%B1%E5%BD%A2%E7%9B%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%B9%B1%E5%BD%A2%E7%9B%AE</t>
   </si>
   <si>
     <t>鹱形目</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B9%88%E5%BD%A2%E7%9B%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%B9%88%E5%BD%A2%E7%9B%AE</t>
   </si>
   <si>
     <t>鹈形目</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B9%B3%E5%BD%A2%E7%9B%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%B9%B3%E5%BD%A2%E7%9B%AE</t>
   </si>
   <si>
     <t>鹳形目</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9A%BC%E5%BD%A2%E7%9B%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9A%BC%E5%BD%A2%E7%9B%AE</t>
   </si>
   <si>
     <t>隼形目</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B9%A4%E5%BD%A2%E7%9B%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%B9%A4%E5%BD%A2%E7%9B%AE</t>
   </si>
   <si>
     <t>鹤形目</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B8%BB%E5%BD%A2%E7%9B%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%B8%BB%E5%BD%A2%E7%9B%AE</t>
   </si>
   <si>
     <t>鸻形目</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B8%BD%E5%BD%A2%E7%9B%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%B8%BD%E5%BD%A2%E7%9B%AE</t>
   </si>
   <si>
     <t>鸽形目</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%80%E5%BD%A2%E7%9B%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%80%E5%BD%A2%E7%9B%AE</t>
   </si>
   <si>
     <t>雀形目</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B9%A6%E5%BD%A2%E7%9B%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%B9%A6%E5%BD%A2%E7%9B%AE</t>
   </si>
   <si>
     <t>鹦形目</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B9%83%E5%BD%A2%E7%9B%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%B9%83%E5%BD%A2%E7%9B%AE</t>
   </si>
   <si>
     <t>鹃形目</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9C%E9%B9%B0%E7%9B%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%9C%E9%B9%B0%E7%9B%AE</t>
   </si>
   <si>
     <t>夜鹰目</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%A8%E7%87%95%E7%9B%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%A8%E7%87%95%E7%9B%AE</t>
   </si>
   <si>
     <t>雨燕目</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BC%A0%E9%B8%9F%E7%9B%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%BC%A0%E9%B8%9F%E7%9B%AE</t>
   </si>
   <si>
     <t>鼠鸟目</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%92%AC%E9%B9%83%E7%A7%91</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%92%AC%E9%B9%83%E7%A7%91</t>
   </si>
   <si>
     <t>咬鹃科</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E6%B3%95%E5%83%A7%E7%9B%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BD%9B%E6%B3%95%E5%83%A7%E7%9B%AE</t>
   </si>
   <si>
     <t>佛法僧目</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B4%B7%E5%BD%A2%E7%9B%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%B4%B7%E5%BD%A2%E7%9B%AE</t>
   </si>
   <si>
     <t>䴕形目</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E9%B9%85</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BC%81%E9%B9%85</t>
   </si>
   <si>
     <t>企鹅</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BD%9C%E9%B8%9F%E5%B1%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%BD%9C%E9%B8%9F%E5%B1%9E</t>
   </si>
   <si>
     <t>潜鸟属</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%93%E9%A0%AD%E9%B7%B9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%B2%93%E9%A0%AD%E9%B7%B9</t>
   </si>
   <si>
     <t>浏览条目正文[c]</t>
